--- a/data/experiment_data/DNAse_exp_01312024_long.xlsx
+++ b/data/experiment_data/DNAse_exp_01312024_long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinge2/repos/time-kill-protocol/data/experiment_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B604BD-2676-E84A-9013-BD2C49098A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BD2F6-E390-2041-8EE7-BE1F5064EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="5060" windowWidth="25880" windowHeight="16940" xr2:uid="{F4B519DA-97DD-AB47-A593-F591A31DA477}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>148363</v>
+        <v>337963</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>150032</v>
+        <v>340578</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>152646</v>
+        <v>344649</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
         <v>180</v>
       </c>
       <c r="B13">
-        <v>30211</v>
+        <v>84939</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -560,7 +560,7 @@
         <v>180</v>
       </c>
       <c r="B14">
-        <v>24106</v>
+        <v>70036</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -571,7 +571,7 @@
         <v>180</v>
       </c>
       <c r="B15">
-        <v>28149</v>
+        <v>79936</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>

--- a/data/experiment_data/DNAse_exp_01312024_long.xlsx
+++ b/data/experiment_data/DNAse_exp_01312024_long.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kinge2/repos/time-kill-protocol/data/experiment_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshanking/repos/time-kill-protocol/data/experiment_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BD2F6-E390-2041-8EE7-BE1F5064EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC55727-2FA5-1544-A439-475C0C139C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="5060" windowWidth="25880" windowHeight="16940" xr2:uid="{F4B519DA-97DD-AB47-A593-F591A31DA477}"/>
+    <workbookView xWindow="-27580" yWindow="1900" windowWidth="25880" windowHeight="16940" xr2:uid="{F4B519DA-97DD-AB47-A593-F591A31DA477}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>337963</v>
+        <v>120814</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>340578</v>
+        <v>121511</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>344649</v>
+        <v>122592</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
         <v>180</v>
       </c>
       <c r="B13">
-        <v>84939</v>
+        <v>43150</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -560,7 +560,7 @@
         <v>180</v>
       </c>
       <c r="B14">
-        <v>70036</v>
+        <v>37369</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -571,7 +571,7 @@
         <v>180</v>
       </c>
       <c r="B15">
-        <v>79936</v>
+        <v>41241</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
